--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BF2958-63DE-40BB-AEC1-1A9863966C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A40BA4-F4FC-42A4-B785-E7A3319286AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -868,7 +868,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1065,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1101,10 +1101,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1495,19 +1492,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1534,23 +1531,23 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6958,7 +6955,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="18" t="s">
+      <c r="A238" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B238" s="5">
@@ -6967,7 +6964,7 @@
       <c r="C238" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D238" s="17">
+      <c r="D238" s="3">
         <v>2</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -6981,7 +6978,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="18" t="s">
+      <c r="A239" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B239" s="5">
@@ -6990,7 +6987,7 @@
       <c r="C239" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D239" s="17">
+      <c r="D239" s="3">
         <v>2</v>
       </c>
       <c r="E239" s="3" t="s">
@@ -7004,7 +7001,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="18" t="s">
+      <c r="A240" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B240" s="5">
@@ -7013,7 +7010,7 @@
       <c r="C240" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D240" s="17">
+      <c r="D240" s="3">
         <v>2</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -7027,7 +7024,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="18" t="s">
+      <c r="A241" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B241" s="5">
@@ -7036,7 +7033,7 @@
       <c r="C241" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D241" s="17">
+      <c r="D241" s="3">
         <v>2</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -7050,7 +7047,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="18" t="s">
+      <c r="A242" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B242" s="5">
@@ -7059,7 +7056,7 @@
       <c r="C242" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D242" s="17">
+      <c r="D242" s="3">
         <v>2</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -7073,7 +7070,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="18" t="s">
+      <c r="A243" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B243" s="5">
@@ -7082,7 +7079,7 @@
       <c r="C243" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D243" s="17">
+      <c r="D243" s="3">
         <v>2</v>
       </c>
       <c r="E243" s="3" t="s">
@@ -7096,7 +7093,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="18" t="s">
+      <c r="A244" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B244" s="5">
@@ -7105,7 +7102,7 @@
       <c r="C244" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D244" s="17">
+      <c r="D244" s="3">
         <v>2</v>
       </c>
       <c r="E244" s="3" t="s">
@@ -7119,7 +7116,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="18" t="s">
+      <c r="A245" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B245" s="5">
@@ -7128,7 +7125,7 @@
       <c r="C245" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D245" s="17">
+      <c r="D245" s="3">
         <v>2</v>
       </c>
       <c r="E245" s="3" t="s">
@@ -7142,7 +7139,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="18" t="s">
+      <c r="A246" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B246" s="5">
@@ -7151,7 +7148,7 @@
       <c r="C246" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D246" s="17">
+      <c r="D246" s="3">
         <v>2</v>
       </c>
       <c r="E246" s="3" t="s">
@@ -7165,7 +7162,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="18" t="s">
+      <c r="A247" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B247" s="5">
@@ -7174,7 +7171,7 @@
       <c r="C247" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D247" s="17">
+      <c r="D247" s="3">
         <v>2</v>
       </c>
       <c r="E247" s="3" t="s">
@@ -7188,7 +7185,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="18" t="s">
+      <c r="A248" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B248" s="5">
@@ -7197,7 +7194,7 @@
       <c r="C248" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D248" s="17">
+      <c r="D248" s="3">
         <v>2</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -7211,7 +7208,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="18" t="s">
+      <c r="A249" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B249" s="5">
@@ -7220,7 +7217,7 @@
       <c r="C249" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D249" s="17">
+      <c r="D249" s="3">
         <v>2</v>
       </c>
       <c r="E249" s="3" t="s">
@@ -7234,7 +7231,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="18" t="s">
+      <c r="A250" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B250" s="5">
@@ -7243,7 +7240,7 @@
       <c r="C250" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D250" s="17">
+      <c r="D250" s="3">
         <v>2</v>
       </c>
       <c r="E250" s="3" t="s">
@@ -7257,7 +7254,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="18" t="s">
+      <c r="A251" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B251" s="5">
@@ -7266,7 +7263,7 @@
       <c r="C251" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D251" s="17">
+      <c r="D251" s="3">
         <v>2</v>
       </c>
       <c r="E251" s="3" t="s">
@@ -7280,7 +7277,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="18" t="s">
+      <c r="A252" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B252" s="5">
@@ -7289,7 +7286,7 @@
       <c r="C252" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D252" s="17">
+      <c r="D252" s="3">
         <v>2</v>
       </c>
       <c r="E252" s="3" t="s">
@@ -7303,7 +7300,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="18" t="s">
+      <c r="A253" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B253" s="5">
@@ -7312,7 +7309,7 @@
       <c r="C253" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D253" s="17">
+      <c r="D253" s="3">
         <v>2</v>
       </c>
       <c r="E253" s="3" t="s">
@@ -7326,7 +7323,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="18" t="s">
+      <c r="A254" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B254" s="5">
@@ -7335,7 +7332,7 @@
       <c r="C254" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D254" s="17">
+      <c r="D254" s="3">
         <v>2</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -7349,7 +7346,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="18" t="s">
+      <c r="A255" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B255" s="5">
@@ -7358,7 +7355,7 @@
       <c r="C255" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D255" s="17">
+      <c r="D255" s="3">
         <v>2</v>
       </c>
       <c r="E255" s="3" t="s">
@@ -7372,7 +7369,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="18" t="s">
+      <c r="A256" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B256" s="5">
@@ -7381,7 +7378,7 @@
       <c r="C256" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D256" s="17">
+      <c r="D256" s="3">
         <v>2</v>
       </c>
       <c r="E256" s="3" t="s">
@@ -7395,7 +7392,7 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="18" t="s">
+      <c r="A257" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B257" s="5">
@@ -7404,7 +7401,7 @@
       <c r="C257" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D257" s="17">
+      <c r="D257" s="3">
         <v>2</v>
       </c>
       <c r="E257" s="3" t="s">
@@ -7418,7 +7415,7 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="18" t="s">
+      <c r="A258" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B258" s="5">
@@ -7427,7 +7424,7 @@
       <c r="C258" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D258" s="17">
+      <c r="D258" s="3">
         <v>2</v>
       </c>
       <c r="E258" s="3" t="s">
@@ -7441,7 +7438,7 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="18" t="s">
+      <c r="A259" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B259" s="5">
@@ -7450,7 +7447,7 @@
       <c r="C259" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D259" s="17">
+      <c r="D259" s="3">
         <v>2</v>
       </c>
       <c r="E259" s="3" t="s">
@@ -7464,7 +7461,7 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="18" t="s">
+      <c r="A260" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B260" s="5">
@@ -7473,7 +7470,7 @@
       <c r="C260" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D260" s="17">
+      <c r="D260" s="3">
         <v>2</v>
       </c>
       <c r="E260" s="3" t="s">
@@ -7487,7 +7484,7 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="18" t="s">
+      <c r="A261" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B261" s="5">
@@ -7496,7 +7493,7 @@
       <c r="C261" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D261" s="17">
+      <c r="D261" s="3">
         <v>2</v>
       </c>
       <c r="E261" s="3" t="s">
@@ -7510,7 +7507,7 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="18" t="s">
+      <c r="A262" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B262" s="5">
@@ -7519,7 +7516,7 @@
       <c r="C262" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D262" s="17">
+      <c r="D262" s="3">
         <v>2</v>
       </c>
       <c r="E262" s="3" t="s">
@@ -7533,7 +7530,7 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="18" t="s">
+      <c r="A263" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B263" s="5">
@@ -7542,7 +7539,7 @@
       <c r="C263" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D263" s="17">
+      <c r="D263" s="3">
         <v>2</v>
       </c>
       <c r="E263" s="3" t="s">
@@ -7556,7 +7553,7 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="18" t="s">
+      <c r="A264" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B264" s="5">
@@ -7565,7 +7562,7 @@
       <c r="C264" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D264" s="17">
+      <c r="D264" s="3">
         <v>2</v>
       </c>
       <c r="E264" s="3" t="s">
@@ -7579,7 +7576,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="18" t="s">
+      <c r="A265" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B265" s="5">
@@ -7588,7 +7585,7 @@
       <c r="C265" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D265" s="17">
+      <c r="D265" s="3">
         <v>2</v>
       </c>
       <c r="E265" s="3" t="s">
@@ -7602,7 +7599,7 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="18" t="s">
+      <c r="A266" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B266" s="5">
@@ -7611,7 +7608,7 @@
       <c r="C266" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D266" s="17">
+      <c r="D266" s="3">
         <v>2</v>
       </c>
       <c r="E266" s="3" t="s">
@@ -7625,7 +7622,7 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="18" t="s">
+      <c r="A267" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B267" s="5">
@@ -7634,7 +7631,7 @@
       <c r="C267" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D267" s="17">
+      <c r="D267" s="3">
         <v>2</v>
       </c>
       <c r="E267" s="3" t="s">
@@ -7648,7 +7645,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="18" t="s">
+      <c r="A268" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B268" s="5">
@@ -7657,7 +7654,7 @@
       <c r="C268" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D268" s="17">
+      <c r="D268" s="3">
         <v>2</v>
       </c>
       <c r="E268" s="3" t="s">
@@ -7671,7 +7668,7 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="18" t="s">
+      <c r="A269" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B269" s="5">
@@ -7680,7 +7677,7 @@
       <c r="C269" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D269" s="17">
+      <c r="D269" s="3">
         <v>2</v>
       </c>
       <c r="E269" s="3" t="s">
@@ -7694,7 +7691,7 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="18" t="s">
+      <c r="A270" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B270" s="5">
@@ -7703,7 +7700,7 @@
       <c r="C270" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D270" s="17">
+      <c r="D270" s="3">
         <v>2</v>
       </c>
       <c r="E270" s="3" t="s">
@@ -7717,7 +7714,7 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="18" t="s">
+      <c r="A271" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B271" s="5">
@@ -7726,7 +7723,7 @@
       <c r="C271" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D271" s="17">
+      <c r="D271" s="3">
         <v>2</v>
       </c>
       <c r="E271" s="3" t="s">
@@ -7740,7 +7737,7 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="18" t="s">
+      <c r="A272" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B272" s="5">
@@ -7749,7 +7746,7 @@
       <c r="C272" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D272" s="17">
+      <c r="D272" s="3">
         <v>2</v>
       </c>
       <c r="E272" s="3" t="s">
@@ -7763,7 +7760,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="18" t="s">
+      <c r="A273" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B273" s="5">
@@ -7772,7 +7769,7 @@
       <c r="C273" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D273" s="17">
+      <c r="D273" s="3">
         <v>2</v>
       </c>
       <c r="E273" s="3" t="s">
@@ -7786,7 +7783,7 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="18" t="s">
+      <c r="A274" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="5">
@@ -7795,7 +7792,7 @@
       <c r="C274" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D274" s="17">
+      <c r="D274" s="3">
         <v>2</v>
       </c>
       <c r="E274" s="3" t="s">
@@ -7809,7 +7806,7 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="18" t="s">
+      <c r="A275" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B275" s="5">
@@ -7818,7 +7815,7 @@
       <c r="C275" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D275" s="17">
+      <c r="D275" s="3">
         <v>2</v>
       </c>
       <c r="E275" s="3" t="s">
@@ -7832,7 +7829,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="18" t="s">
+      <c r="A276" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B276" s="5">
@@ -7841,7 +7838,7 @@
       <c r="C276" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D276" s="17">
+      <c r="D276" s="3">
         <v>2</v>
       </c>
       <c r="E276" s="3" t="s">
@@ -7855,7 +7852,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="18" t="s">
+      <c r="A277" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B277" s="5">
@@ -7864,7 +7861,7 @@
       <c r="C277" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D277" s="17">
+      <c r="D277" s="3">
         <v>2</v>
       </c>
       <c r="E277" s="3" t="s">
@@ -7878,7 +7875,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B278" s="5">
@@ -7887,7 +7884,7 @@
       <c r="C278" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D278" s="17">
+      <c r="D278" s="3">
         <v>2</v>
       </c>
       <c r="E278" s="3" t="s">
@@ -7901,7 +7898,7 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B279" s="5">
@@ -7910,7 +7907,7 @@
       <c r="C279" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D279" s="17">
+      <c r="D279" s="3">
         <v>2</v>
       </c>
       <c r="E279" s="3" t="s">
@@ -7924,7 +7921,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="18" t="s">
+      <c r="A280" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B280" s="5">
@@ -7933,7 +7930,7 @@
       <c r="C280" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D280" s="17">
+      <c r="D280" s="3">
         <v>2</v>
       </c>
       <c r="E280" s="3" t="s">
@@ -7947,7 +7944,7 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="18" t="s">
+      <c r="A281" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B281" s="5">
@@ -7956,7 +7953,7 @@
       <c r="C281" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D281" s="17">
+      <c r="D281" s="3">
         <v>2</v>
       </c>
       <c r="E281" s="3" t="s">
@@ -7970,7 +7967,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="18" t="s">
+      <c r="A282" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B282" s="5">
@@ -7979,7 +7976,7 @@
       <c r="C282" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D282" s="17">
+      <c r="D282" s="3">
         <v>2</v>
       </c>
       <c r="E282" s="3" t="s">
@@ -7993,7 +7990,7 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="18" t="s">
+      <c r="A283" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B283" s="5">
@@ -8002,7 +7999,7 @@
       <c r="C283" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D283" s="17">
+      <c r="D283" s="3">
         <v>2</v>
       </c>
       <c r="E283" s="3" t="s">
@@ -8016,7 +8013,7 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="18" t="s">
+      <c r="A284" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B284" s="5">
@@ -8025,7 +8022,7 @@
       <c r="C284" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D284" s="17">
+      <c r="D284" s="3">
         <v>2</v>
       </c>
       <c r="E284" s="3" t="s">
@@ -8039,7 +8036,7 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="18" t="s">
+      <c r="A285" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B285" s="5">
@@ -8048,7 +8045,7 @@
       <c r="C285" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D285" s="17">
+      <c r="D285" s="3">
         <v>2</v>
       </c>
       <c r="E285" s="3" t="s">
@@ -8062,7 +8059,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="18" t="s">
+      <c r="A286" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B286" s="5">
@@ -8071,7 +8068,7 @@
       <c r="C286" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D286" s="17">
+      <c r="D286" s="3">
         <v>2</v>
       </c>
       <c r="E286" s="3" t="s">
@@ -8085,7 +8082,7 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="18" t="s">
+      <c r="A287" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B287" s="5">
@@ -8094,7 +8091,7 @@
       <c r="C287" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D287" s="17">
+      <c r="D287" s="3">
         <v>2</v>
       </c>
       <c r="E287" s="3" t="s">
@@ -8108,7 +8105,7 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="18" t="s">
+      <c r="A288" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B288" s="5">
@@ -8117,7 +8114,7 @@
       <c r="C288" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D288" s="17">
+      <c r="D288" s="3">
         <v>2</v>
       </c>
       <c r="E288" s="3" t="s">
@@ -8131,7 +8128,7 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="18" t="s">
+      <c r="A289" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B289" s="5">
@@ -8140,7 +8137,7 @@
       <c r="C289" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D289" s="17">
+      <c r="D289" s="3">
         <v>2</v>
       </c>
       <c r="E289" s="3" t="s">
@@ -8154,7 +8151,7 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="18" t="s">
+      <c r="A290" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B290" s="5">
@@ -8163,7 +8160,7 @@
       <c r="C290" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D290" s="17">
+      <c r="D290" s="3">
         <v>2</v>
       </c>
       <c r="E290" s="3" t="s">
@@ -8177,7 +8174,7 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="18" t="s">
+      <c r="A291" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B291" s="5">
@@ -8186,7 +8183,7 @@
       <c r="C291" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D291" s="17">
+      <c r="D291" s="3">
         <v>2</v>
       </c>
       <c r="E291" s="3" t="s">
@@ -8200,7 +8197,7 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="18" t="s">
+      <c r="A292" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B292" s="5">
@@ -8209,7 +8206,7 @@
       <c r="C292" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D292" s="17">
+      <c r="D292" s="3">
         <v>2</v>
       </c>
       <c r="E292" s="3" t="s">
@@ -8223,7 +8220,7 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="18" t="s">
+      <c r="A293" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B293" s="5">
@@ -8232,7 +8229,7 @@
       <c r="C293" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D293" s="17">
+      <c r="D293" s="3">
         <v>2</v>
       </c>
       <c r="E293" s="3" t="s">
@@ -8246,7 +8243,7 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="18" t="s">
+      <c r="A294" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B294" s="5">
@@ -8255,7 +8252,7 @@
       <c r="C294" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D294" s="17">
+      <c r="D294" s="3">
         <v>2</v>
       </c>
       <c r="E294" s="3" t="s">
@@ -8269,7 +8266,7 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="18" t="s">
+      <c r="A295" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B295" s="5">
@@ -8278,7 +8275,7 @@
       <c r="C295" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D295" s="17">
+      <c r="D295" s="3">
         <v>2</v>
       </c>
       <c r="E295" s="3" t="s">
@@ -8292,7 +8289,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="18" t="s">
+      <c r="A296" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B296" s="5">
@@ -8301,7 +8298,7 @@
       <c r="C296" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D296" s="17">
+      <c r="D296" s="3">
         <v>2</v>
       </c>
       <c r="E296" s="3" t="s">
@@ -8315,7 +8312,7 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="18" t="s">
+      <c r="A297" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B297" s="5">
@@ -8324,7 +8321,7 @@
       <c r="C297" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D297" s="17">
+      <c r="D297" s="3">
         <v>2</v>
       </c>
       <c r="E297" s="3" t="s">
@@ -8338,7 +8335,7 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="18" t="s">
+      <c r="A298" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B298" s="5">
@@ -8347,7 +8344,7 @@
       <c r="C298" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D298" s="17">
+      <c r="D298" s="3">
         <v>2</v>
       </c>
       <c r="E298" s="3" t="s">
@@ -8361,7 +8358,7 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="18" t="s">
+      <c r="A299" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B299" s="5">
@@ -8370,7 +8367,7 @@
       <c r="C299" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D299" s="17">
+      <c r="D299" s="3">
         <v>2</v>
       </c>
       <c r="E299" s="3" t="s">
@@ -8384,7 +8381,7 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="18" t="s">
+      <c r="A300" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B300" s="5">
@@ -8393,7 +8390,7 @@
       <c r="C300" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D300" s="17">
+      <c r="D300" s="3">
         <v>2</v>
       </c>
       <c r="E300" s="3" t="s">
@@ -8407,7 +8404,7 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="18" t="s">
+      <c r="A301" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B301" s="5">
@@ -8416,7 +8413,7 @@
       <c r="C301" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D301" s="17">
+      <c r="D301" s="3">
         <v>2</v>
       </c>
       <c r="E301" s="3" t="s">
@@ -8430,7 +8427,7 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" s="18" t="s">
+      <c r="A302" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B302" s="5">
@@ -8439,7 +8436,7 @@
       <c r="C302" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D302" s="17">
+      <c r="D302" s="3">
         <v>2</v>
       </c>
       <c r="E302" s="3" t="s">
@@ -8453,7 +8450,7 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" s="18" t="s">
+      <c r="A303" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B303" s="5">
@@ -8462,7 +8459,7 @@
       <c r="C303" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D303" s="17">
+      <c r="D303" s="3">
         <v>2</v>
       </c>
       <c r="E303" s="3" t="s">
@@ -8476,7 +8473,7 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" s="18" t="s">
+      <c r="A304" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B304" s="5">
@@ -8485,7 +8482,7 @@
       <c r="C304" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D304" s="17">
+      <c r="D304" s="3">
         <v>2</v>
       </c>
       <c r="E304" s="3" t="s">
@@ -8499,7 +8496,7 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" s="18" t="s">
+      <c r="A305" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B305" s="5">
@@ -8508,7 +8505,7 @@
       <c r="C305" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D305" s="17">
+      <c r="D305" s="3">
         <v>2</v>
       </c>
       <c r="E305" s="3" t="s">
@@ -8522,7 +8519,7 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" s="18" t="s">
+      <c r="A306" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B306" s="5">
@@ -8531,7 +8528,7 @@
       <c r="C306" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D306" s="17">
+      <c r="D306" s="3">
         <v>2</v>
       </c>
       <c r="E306" s="3" t="s">
@@ -8545,7 +8542,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A307" s="18" t="s">
+      <c r="A307" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B307" s="5">
@@ -8554,7 +8551,7 @@
       <c r="C307" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D307" s="17">
+      <c r="D307" s="3">
         <v>2</v>
       </c>
       <c r="E307" s="3" t="s">
@@ -8568,7 +8565,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A308" s="18" t="s">
+      <c r="A308" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B308" s="5">
@@ -8577,7 +8574,7 @@
       <c r="C308" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D308" s="17">
+      <c r="D308" s="3">
         <v>2</v>
       </c>
       <c r="E308" s="3" t="s">
@@ -8591,7 +8588,7 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A309" s="18" t="s">
+      <c r="A309" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B309" s="5">
@@ -8600,7 +8597,7 @@
       <c r="C309" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D309" s="17">
+      <c r="D309" s="3">
         <v>2</v>
       </c>
       <c r="E309" s="3" t="s">
@@ -8614,7 +8611,7 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A310" s="18" t="s">
+      <c r="A310" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B310" s="5">
@@ -8623,7 +8620,7 @@
       <c r="C310" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D310" s="17">
+      <c r="D310" s="3">
         <v>2</v>
       </c>
       <c r="E310" s="3" t="s">
@@ -8637,7 +8634,7 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A311" s="18" t="s">
+      <c r="A311" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B311" s="5">
@@ -8646,7 +8643,7 @@
       <c r="C311" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D311" s="17">
+      <c r="D311" s="3">
         <v>2</v>
       </c>
       <c r="E311" s="3" t="s">
@@ -8660,7 +8657,7 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A312" s="18" t="s">
+      <c r="A312" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B312" s="5">
@@ -8669,7 +8666,7 @@
       <c r="C312" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D312" s="17">
+      <c r="D312" s="3">
         <v>2</v>
       </c>
       <c r="E312" s="3" t="s">
@@ -8683,7 +8680,7 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A313" s="18" t="s">
+      <c r="A313" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B313" s="5">
@@ -8692,7 +8689,7 @@
       <c r="C313" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D313" s="17">
+      <c r="D313" s="3">
         <v>2</v>
       </c>
       <c r="E313" s="3" t="s">
@@ -8706,7 +8703,7 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A314" s="18" t="s">
+      <c r="A314" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B314" s="5">
@@ -8715,7 +8712,7 @@
       <c r="C314" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D314" s="17">
+      <c r="D314" s="3">
         <v>2</v>
       </c>
       <c r="E314" s="3" t="s">
@@ -8729,7 +8726,7 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A315" s="18" t="s">
+      <c r="A315" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B315" s="5">
@@ -8738,7 +8735,7 @@
       <c r="C315" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D315" s="17">
+      <c r="D315" s="3">
         <v>2</v>
       </c>
       <c r="E315" s="3" t="s">
@@ -8752,7 +8749,7 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A316" s="18" t="s">
+      <c r="A316" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B316" s="5">
@@ -8761,7 +8758,7 @@
       <c r="C316" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D316" s="17">
+      <c r="D316" s="3">
         <v>2</v>
       </c>
       <c r="E316" s="3" t="s">
@@ -8775,7 +8772,7 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A317" s="18" t="s">
+      <c r="A317" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B317" s="5">
@@ -8784,7 +8781,7 @@
       <c r="C317" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D317" s="17">
+      <c r="D317" s="3">
         <v>2</v>
       </c>
       <c r="E317" s="3" t="s">
@@ -8798,7 +8795,7 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A318" s="18" t="s">
+      <c r="A318" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B318" s="5">
@@ -8807,7 +8804,7 @@
       <c r="C318" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D318" s="17">
+      <c r="D318" s="3">
         <v>2</v>
       </c>
       <c r="E318" s="3" t="s">
@@ -8821,7 +8818,7 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A319" s="18" t="s">
+      <c r="A319" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B319" s="5">
@@ -8830,7 +8827,7 @@
       <c r="C319" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D319" s="17">
+      <c r="D319" s="3">
         <v>2</v>
       </c>
       <c r="E319" s="3" t="s">
@@ -8844,7 +8841,7 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A320" s="18" t="s">
+      <c r="A320" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B320" s="5">
@@ -8853,7 +8850,7 @@
       <c r="C320" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D320" s="17">
+      <c r="D320" s="3">
         <v>2</v>
       </c>
       <c r="E320" s="3" t="s">
@@ -8867,7 +8864,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A321" s="18" t="s">
+      <c r="A321" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B321" s="5">
@@ -8876,7 +8873,7 @@
       <c r="C321" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D321" s="17">
+      <c r="D321" s="3">
         <v>2</v>
       </c>
       <c r="E321" s="3" t="s">
@@ -8890,7 +8887,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A322" s="18" t="s">
+      <c r="A322" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B322" s="5">
@@ -8899,7 +8896,7 @@
       <c r="C322" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D322" s="17">
+      <c r="D322" s="3">
         <v>2</v>
       </c>
       <c r="E322" s="3" t="s">
@@ -8913,7 +8910,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A323" s="18" t="s">
+      <c r="A323" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B323" s="5">
@@ -8922,7 +8919,7 @@
       <c r="C323" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D323" s="17">
+      <c r="D323" s="3">
         <v>2</v>
       </c>
       <c r="E323" s="3" t="s">
@@ -8936,7 +8933,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" s="18" t="s">
+      <c r="A324" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B324" s="5">
@@ -8945,7 +8942,7 @@
       <c r="C324" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D324" s="17">
+      <c r="D324" s="3">
         <v>2</v>
       </c>
       <c r="E324" s="3" t="s">
@@ -8959,7 +8956,7 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="18" t="s">
+      <c r="A325" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B325" s="5">
@@ -8968,7 +8965,7 @@
       <c r="C325" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D325" s="17">
+      <c r="D325" s="3">
         <v>2</v>
       </c>
       <c r="E325" s="3" t="s">
@@ -8982,7 +8979,7 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326" s="18" t="s">
+      <c r="A326" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B326" s="5">
@@ -8991,7 +8988,7 @@
       <c r="C326" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D326" s="17">
+      <c r="D326" s="3">
         <v>2</v>
       </c>
       <c r="E326" s="3" t="s">
@@ -9005,7 +9002,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="18" t="s">
+      <c r="A327" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B327" s="5">
@@ -9014,7 +9011,7 @@
       <c r="C327" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D327" s="17">
+      <c r="D327" s="3">
         <v>2</v>
       </c>
       <c r="E327" s="3" t="s">
@@ -9028,7 +9025,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328" s="18" t="s">
+      <c r="A328" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B328" s="5">
@@ -9037,7 +9034,7 @@
       <c r="C328" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D328" s="17">
+      <c r="D328" s="3">
         <v>2</v>
       </c>
       <c r="E328" s="3" t="s">
@@ -9051,7 +9048,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A329" s="18" t="s">
+      <c r="A329" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B329" s="5">
@@ -9060,7 +9057,7 @@
       <c r="C329" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D329" s="17">
+      <c r="D329" s="3">
         <v>2</v>
       </c>
       <c r="E329" s="3" t="s">
@@ -9074,7 +9071,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A330" s="18" t="s">
+      <c r="A330" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B330" s="5">
@@ -9083,7 +9080,7 @@
       <c r="C330" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D330" s="17">
+      <c r="D330" s="3">
         <v>2</v>
       </c>
       <c r="E330" s="3" t="s">
@@ -9097,7 +9094,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A331" s="18" t="s">
+      <c r="A331" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B331" s="5">
@@ -9106,7 +9103,7 @@
       <c r="C331" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D331" s="17">
+      <c r="D331" s="3">
         <v>2</v>
       </c>
       <c r="E331" s="3" t="s">
@@ -9120,7 +9117,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A332" s="18" t="s">
+      <c r="A332" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B332" s="5">
@@ -9129,7 +9126,7 @@
       <c r="C332" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D332" s="17">
+      <c r="D332" s="3">
         <v>2</v>
       </c>
       <c r="E332" s="3" t="s">
@@ -9143,7 +9140,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333" s="18" t="s">
+      <c r="A333" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B333" s="5">
@@ -9152,7 +9149,7 @@
       <c r="C333" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D333" s="17">
+      <c r="D333" s="3">
         <v>2</v>
       </c>
       <c r="E333" s="3" t="s">
@@ -9166,7 +9163,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A334" s="18" t="s">
+      <c r="A334" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B334" s="5">
@@ -9175,7 +9172,7 @@
       <c r="C334" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D334" s="17">
+      <c r="D334" s="3">
         <v>2</v>
       </c>
       <c r="E334" s="3" t="s">
@@ -9189,7 +9186,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A335" s="18" t="s">
+      <c r="A335" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B335" s="5">
@@ -9198,7 +9195,7 @@
       <c r="C335" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D335" s="17">
+      <c r="D335" s="3">
         <v>2</v>
       </c>
       <c r="E335" s="3" t="s">
@@ -9212,7 +9209,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A336" s="18" t="s">
+      <c r="A336" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B336" s="5">
@@ -9221,7 +9218,7 @@
       <c r="C336" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D336" s="17">
+      <c r="D336" s="3">
         <v>2</v>
       </c>
       <c r="E336" s="3" t="s">
@@ -9235,7 +9232,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B337" s="5">
@@ -9244,7 +9241,7 @@
       <c r="C337" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D337" s="17">
+      <c r="D337" s="3">
         <v>2</v>
       </c>
       <c r="E337" s="3" t="s">
@@ -9258,7 +9255,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A338" s="18" t="s">
+      <c r="A338" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B338" s="5">
@@ -9267,7 +9264,7 @@
       <c r="C338" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D338" s="17">
+      <c r="D338" s="3">
         <v>2</v>
       </c>
       <c r="E338" s="3" t="s">
@@ -9281,7 +9278,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A339" s="18" t="s">
+      <c r="A339" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B339" s="5">
@@ -9290,7 +9287,7 @@
       <c r="C339" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D339" s="17">
+      <c r="D339" s="3">
         <v>2</v>
       </c>
       <c r="E339" s="3" t="s">
@@ -9304,7 +9301,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A340" s="18" t="s">
+      <c r="A340" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B340" s="5">
@@ -9313,7 +9310,7 @@
       <c r="C340" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D340" s="17">
+      <c r="D340" s="3">
         <v>2</v>
       </c>
       <c r="E340" s="3" t="s">
@@ -9327,7 +9324,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A341" s="18" t="s">
+      <c r="A341" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B341" s="5">
@@ -9336,7 +9333,7 @@
       <c r="C341" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D341" s="17">
+      <c r="D341" s="3">
         <v>2</v>
       </c>
       <c r="E341" s="3" t="s">
@@ -9350,7 +9347,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B342" s="5">
@@ -9359,7 +9356,7 @@
       <c r="C342" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D342" s="17">
+      <c r="D342" s="3">
         <v>2</v>
       </c>
       <c r="E342" s="3" t="s">
@@ -9373,7 +9370,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343" s="18" t="s">
+      <c r="A343" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B343" s="5">
@@ -9382,7 +9379,7 @@
       <c r="C343" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D343" s="17">
+      <c r="D343" s="3">
         <v>2</v>
       </c>
       <c r="E343" s="3" t="s">
@@ -9396,7 +9393,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A344" s="18" t="s">
+      <c r="A344" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B344" s="5">
@@ -9405,7 +9402,7 @@
       <c r="C344" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D344" s="17">
+      <c r="D344" s="3">
         <v>2</v>
       </c>
       <c r="E344" s="3" t="s">
@@ -9419,7 +9416,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A345" s="18" t="s">
+      <c r="A345" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B345" s="5">
@@ -9428,7 +9425,7 @@
       <c r="C345" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D345" s="17">
+      <c r="D345" s="3">
         <v>2</v>
       </c>
       <c r="E345" s="3" t="s">
@@ -9442,7 +9439,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A346" s="18" t="s">
+      <c r="A346" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B346" s="5">
@@ -9451,7 +9448,7 @@
       <c r="C346" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D346" s="17">
+      <c r="D346" s="3">
         <v>2</v>
       </c>
       <c r="E346" s="3" t="s">
@@ -9465,7 +9462,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A347" s="18" t="s">
+      <c r="A347" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B347" s="5">
@@ -9474,7 +9471,7 @@
       <c r="C347" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D347" s="17">
+      <c r="D347" s="3">
         <v>2</v>
       </c>
       <c r="E347" s="3" t="s">
@@ -9488,7 +9485,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A348" s="18" t="s">
+      <c r="A348" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B348" s="5">
@@ -9497,7 +9494,7 @@
       <c r="C348" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D348" s="17">
+      <c r="D348" s="3">
         <v>2</v>
       </c>
       <c r="E348" s="3" t="s">
@@ -9511,7 +9508,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A349" s="18" t="s">
+      <c r="A349" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B349" s="5">
@@ -9520,7 +9517,7 @@
       <c r="C349" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D349" s="17">
+      <c r="D349" s="3">
         <v>2</v>
       </c>
       <c r="E349" s="3" t="s">
@@ -9534,7 +9531,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A350" s="18" t="s">
+      <c r="A350" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B350" s="5">
@@ -9543,7 +9540,7 @@
       <c r="C350" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D350" s="17">
+      <c r="D350" s="3">
         <v>2</v>
       </c>
       <c r="E350" s="3" t="s">
@@ -9557,7 +9554,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A351" s="18" t="s">
+      <c r="A351" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B351" s="5">
@@ -9566,7 +9563,7 @@
       <c r="C351" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D351" s="17">
+      <c r="D351" s="3">
         <v>2</v>
       </c>
       <c r="E351" s="3" t="s">
@@ -9580,7 +9577,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A352" s="18" t="s">
+      <c r="A352" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B352" s="5">
@@ -9589,7 +9586,7 @@
       <c r="C352" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D352" s="17">
+      <c r="D352" s="3">
         <v>2</v>
       </c>
       <c r="E352" s="3" t="s">
@@ -9603,7 +9600,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B353" s="5">
@@ -9612,7 +9609,7 @@
       <c r="C353" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D353" s="17">
+      <c r="D353" s="3">
         <v>2</v>
       </c>
       <c r="E353" s="3" t="s">
@@ -9626,7 +9623,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A354" s="18" t="s">
+      <c r="A354" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B354" s="5">
@@ -9635,7 +9632,7 @@
       <c r="C354" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D354" s="17">
+      <c r="D354" s="3">
         <v>2</v>
       </c>
       <c r="E354" s="3" t="s">
@@ -9649,7 +9646,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A355" s="18" t="s">
+      <c r="A355" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B355" s="5">
@@ -9658,7 +9655,7 @@
       <c r="C355" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D355" s="17">
+      <c r="D355" s="3">
         <v>2</v>
       </c>
       <c r="E355" s="3" t="s">
@@ -9672,7 +9669,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A356" s="18" t="s">
+      <c r="A356" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B356" s="5">
@@ -9681,7 +9678,7 @@
       <c r="C356" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D356" s="17">
+      <c r="D356" s="3">
         <v>2</v>
       </c>
       <c r="E356" s="3" t="s">
@@ -9695,7 +9692,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B357" s="5">
@@ -9704,7 +9701,7 @@
       <c r="C357" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D357" s="17">
+      <c r="D357" s="3">
         <v>2</v>
       </c>
       <c r="E357" s="3" t="s">
@@ -9718,7 +9715,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A358" s="18" t="s">
+      <c r="A358" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B358" s="5">
@@ -9727,7 +9724,7 @@
       <c r="C358" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D358" s="17">
+      <c r="D358" s="3">
         <v>2</v>
       </c>
       <c r="E358" s="3" t="s">
@@ -9741,7 +9738,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B359" s="5">
@@ -9750,7 +9747,7 @@
       <c r="C359" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D359" s="17">
+      <c r="D359" s="3">
         <v>2</v>
       </c>
       <c r="E359" s="3" t="s">
@@ -9764,7 +9761,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A360" s="18" t="s">
+      <c r="A360" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B360" s="5">
@@ -9773,7 +9770,7 @@
       <c r="C360" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D360" s="17">
+      <c r="D360" s="3">
         <v>2</v>
       </c>
       <c r="E360" s="3" t="s">
@@ -9787,7 +9784,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A361" s="18" t="s">
+      <c r="A361" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B361" s="5">
@@ -9796,7 +9793,7 @@
       <c r="C361" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D361" s="17">
+      <c r="D361" s="3">
         <v>2</v>
       </c>
       <c r="E361" s="3" t="s">
@@ -9810,7 +9807,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A362" s="18" t="s">
+      <c r="A362" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B362" s="5">
@@ -9819,7 +9816,7 @@
       <c r="C362" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D362" s="17">
+      <c r="D362" s="3">
         <v>2</v>
       </c>
       <c r="E362" s="3" t="s">
@@ -9833,7 +9830,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363" s="18" t="s">
+      <c r="A363" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B363" s="5">
@@ -9842,7 +9839,7 @@
       <c r="C363" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D363" s="17">
+      <c r="D363" s="3">
         <v>2</v>
       </c>
       <c r="E363" s="3" t="s">
@@ -9856,7 +9853,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364" s="18" t="s">
+      <c r="A364" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B364" s="5">
@@ -9865,7 +9862,7 @@
       <c r="C364" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D364" s="17">
+      <c r="D364" s="3">
         <v>2</v>
       </c>
       <c r="E364" s="3" t="s">
@@ -9879,7 +9876,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365" s="18" t="s">
+      <c r="A365" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B365" s="5">
@@ -9888,7 +9885,7 @@
       <c r="C365" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D365" s="17">
+      <c r="D365" s="3">
         <v>2</v>
       </c>
       <c r="E365" s="3" t="s">
@@ -9902,7 +9899,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366" s="18" t="s">
+      <c r="A366" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B366" s="5">
@@ -9911,7 +9908,7 @@
       <c r="C366" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D366" s="17">
+      <c r="D366" s="3">
         <v>2</v>
       </c>
       <c r="E366" s="3" t="s">
@@ -9925,7 +9922,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A367" s="18" t="s">
+      <c r="A367" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B367" s="5">
@@ -9934,7 +9931,7 @@
       <c r="C367" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D367" s="17">
+      <c r="D367" s="3">
         <v>2</v>
       </c>
       <c r="E367" s="3" t="s">
@@ -9948,7 +9945,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A368" s="18" t="s">
+      <c r="A368" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B368" s="5">
@@ -9957,7 +9954,7 @@
       <c r="C368" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D368" s="17">
+      <c r="D368" s="3">
         <v>2</v>
       </c>
       <c r="E368" s="3" t="s">
@@ -9971,7 +9968,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A369" s="18" t="s">
+      <c r="A369" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B369" s="5">
@@ -9980,7 +9977,7 @@
       <c r="C369" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D369" s="17">
+      <c r="D369" s="3">
         <v>2</v>
       </c>
       <c r="E369" s="3" t="s">
@@ -9994,7 +9991,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="18" t="s">
+      <c r="A370" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B370" s="5">
@@ -10003,7 +10000,7 @@
       <c r="C370" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D370" s="17">
+      <c r="D370" s="3">
         <v>2</v>
       </c>
       <c r="E370" s="3" t="s">
@@ -10017,7 +10014,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="18" t="s">
+      <c r="A371" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B371" s="5">
@@ -10026,7 +10023,7 @@
       <c r="C371" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D371" s="17">
+      <c r="D371" s="3">
         <v>2</v>
       </c>
       <c r="E371" s="3" t="s">
@@ -10040,7 +10037,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372" s="18" t="s">
+      <c r="A372" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B372" s="5">
@@ -10049,7 +10046,7 @@
       <c r="C372" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D372" s="17">
+      <c r="D372" s="3">
         <v>2</v>
       </c>
       <c r="E372" s="3" t="s">
@@ -10063,7 +10060,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="18" t="s">
+      <c r="A373" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B373" s="5">
@@ -10072,7 +10069,7 @@
       <c r="C373" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D373" s="17">
+      <c r="D373" s="3">
         <v>2</v>
       </c>
       <c r="E373" s="3" t="s">
@@ -10086,7 +10083,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" s="18" t="s">
+      <c r="A374" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B374" s="5">
@@ -10095,7 +10092,7 @@
       <c r="C374" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D374" s="17">
+      <c r="D374" s="3">
         <v>2</v>
       </c>
       <c r="E374" s="3" t="s">
@@ -10109,7 +10106,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375" s="18" t="s">
+      <c r="A375" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B375" s="5">
@@ -10118,7 +10115,7 @@
       <c r="C375" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D375" s="17">
+      <c r="D375" s="3">
         <v>2</v>
       </c>
       <c r="E375" s="3" t="s">
@@ -10132,7 +10129,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A376" s="18" t="s">
+      <c r="A376" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B376" s="5">
@@ -10141,7 +10138,7 @@
       <c r="C376" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D376" s="17">
+      <c r="D376" s="3">
         <v>2</v>
       </c>
       <c r="E376" s="3" t="s">
@@ -10155,7 +10152,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B377" s="5">
@@ -10164,7 +10161,7 @@
       <c r="C377" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D377" s="17">
+      <c r="D377" s="3">
         <v>2</v>
       </c>
       <c r="E377" s="3" t="s">
@@ -10178,7 +10175,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A378" s="18" t="s">
+      <c r="A378" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B378" s="5">
@@ -10187,7 +10184,7 @@
       <c r="C378" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D378" s="17">
+      <c r="D378" s="3">
         <v>2</v>
       </c>
       <c r="E378" s="3" t="s">
@@ -10201,7 +10198,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A379" s="18" t="s">
+      <c r="A379" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B379" s="5">
@@ -10210,7 +10207,7 @@
       <c r="C379" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D379" s="17">
+      <c r="D379" s="3">
         <v>2</v>
       </c>
       <c r="E379" s="3" t="s">
@@ -10224,7 +10221,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A380" s="18" t="s">
+      <c r="A380" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B380" s="5">
@@ -10233,7 +10230,7 @@
       <c r="C380" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D380" s="17">
+      <c r="D380" s="3">
         <v>2</v>
       </c>
       <c r="E380" s="3" t="s">
@@ -10247,7 +10244,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A381" s="18" t="s">
+      <c r="A381" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B381" s="5">
@@ -10256,7 +10253,7 @@
       <c r="C381" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D381" s="17">
+      <c r="D381" s="3">
         <v>2</v>
       </c>
       <c r="E381" s="3" t="s">
@@ -10270,7 +10267,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A382" s="18" t="s">
+      <c r="A382" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B382" s="5">
@@ -10279,7 +10276,7 @@
       <c r="C382" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D382" s="17">
+      <c r="D382" s="3">
         <v>2</v>
       </c>
       <c r="E382" s="3" t="s">
@@ -10293,7 +10290,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A383" s="18" t="s">
+      <c r="A383" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B383" s="5">
@@ -10302,7 +10299,7 @@
       <c r="C383" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D383" s="17">
+      <c r="D383" s="3">
         <v>2</v>
       </c>
       <c r="E383" s="3" t="s">
@@ -10316,7 +10313,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A384" s="18" t="s">
+      <c r="A384" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B384" s="5">
@@ -10325,7 +10322,7 @@
       <c r="C384" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D384" s="17">
+      <c r="D384" s="3">
         <v>2</v>
       </c>
       <c r="E384" s="3" t="s">
@@ -10339,7 +10336,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A385" s="18" t="s">
+      <c r="A385" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B385" s="5">
@@ -10348,7 +10345,7 @@
       <c r="C385" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D385" s="17">
+      <c r="D385" s="3">
         <v>2</v>
       </c>
       <c r="E385" s="3" t="s">
@@ -10362,7 +10359,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A386" s="18" t="s">
+      <c r="A386" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B386" s="5">
@@ -10371,7 +10368,7 @@
       <c r="C386" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D386" s="17">
+      <c r="D386" s="3">
         <v>2</v>
       </c>
       <c r="E386" s="3" t="s">
@@ -10385,7 +10382,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A387" s="18" t="s">
+      <c r="A387" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B387" s="5">
@@ -10394,7 +10391,7 @@
       <c r="C387" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D387" s="17">
+      <c r="D387" s="3">
         <v>2</v>
       </c>
       <c r="E387" s="3" t="s">
@@ -10408,7 +10405,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A388" s="18" t="s">
+      <c r="A388" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B388" s="5">
@@ -10417,7 +10414,7 @@
       <c r="C388" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D388" s="17">
+      <c r="D388" s="3">
         <v>2</v>
       </c>
       <c r="E388" s="3" t="s">
@@ -10431,7 +10428,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A389" s="18" t="s">
+      <c r="A389" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B389" s="5">
@@ -10440,7 +10437,7 @@
       <c r="C389" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D389" s="17">
+      <c r="D389" s="3">
         <v>2</v>
       </c>
       <c r="E389" s="3" t="s">
@@ -10454,7 +10451,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A390" s="18" t="s">
+      <c r="A390" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B390" s="5">
@@ -10463,7 +10460,7 @@
       <c r="C390" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D390" s="17">
+      <c r="D390" s="3">
         <v>2</v>
       </c>
       <c r="E390" s="3" t="s">
@@ -10477,7 +10474,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A391" s="18" t="s">
+      <c r="A391" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B391" s="5">
@@ -10486,7 +10483,7 @@
       <c r="C391" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D391" s="17">
+      <c r="D391" s="3">
         <v>2</v>
       </c>
       <c r="E391" s="3" t="s">
@@ -10500,7 +10497,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A392" s="18" t="s">
+      <c r="A392" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B392" s="5">
@@ -10509,7 +10506,7 @@
       <c r="C392" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D392" s="17">
+      <c r="D392" s="3">
         <v>2</v>
       </c>
       <c r="E392" s="3" t="s">
@@ -10523,7 +10520,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A393" s="18" t="s">
+      <c r="A393" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B393" s="5">
@@ -10532,7 +10529,7 @@
       <c r="C393" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D393" s="17">
+      <c r="D393" s="3">
         <v>2</v>
       </c>
       <c r="E393" s="3" t="s">
@@ -10546,7 +10543,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A394" s="18" t="s">
+      <c r="A394" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B394" s="5">
@@ -10555,7 +10552,7 @@
       <c r="C394" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D394" s="17">
+      <c r="D394" s="3">
         <v>2</v>
       </c>
       <c r="E394" s="3" t="s">
@@ -10569,7 +10566,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A395" s="18" t="s">
+      <c r="A395" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B395" s="5">
@@ -10578,7 +10575,7 @@
       <c r="C395" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D395" s="17">
+      <c r="D395" s="3">
         <v>2</v>
       </c>
       <c r="E395" s="3" t="s">
@@ -10592,7 +10589,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A396" s="18" t="s">
+      <c r="A396" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B396" s="5">
@@ -10601,7 +10598,7 @@
       <c r="C396" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D396" s="17">
+      <c r="D396" s="3">
         <v>2</v>
       </c>
       <c r="E396" s="3" t="s">
@@ -10615,7 +10612,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A397" s="18" t="s">
+      <c r="A397" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B397" s="5">
@@ -10624,7 +10621,7 @@
       <c r="C397" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D397" s="17">
+      <c r="D397" s="3">
         <v>2</v>
       </c>
       <c r="E397" s="3" t="s">
@@ -10638,7 +10635,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A398" s="18" t="s">
+      <c r="A398" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B398" s="5">
@@ -10647,7 +10644,7 @@
       <c r="C398" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D398" s="17">
+      <c r="D398" s="3">
         <v>2</v>
       </c>
       <c r="E398" s="3" t="s">
@@ -10661,7 +10658,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A399" s="18" t="s">
+      <c r="A399" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B399" s="5">
@@ -10670,7 +10667,7 @@
       <c r="C399" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D399" s="17">
+      <c r="D399" s="3">
         <v>2</v>
       </c>
       <c r="E399" s="3" t="s">
@@ -10684,7 +10681,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A400" s="18" t="s">
+      <c r="A400" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B400" s="5">
@@ -10693,7 +10690,7 @@
       <c r="C400" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D400" s="17">
+      <c r="D400" s="3">
         <v>2</v>
       </c>
       <c r="E400" s="3" t="s">
@@ -10707,7 +10704,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A401" s="18" t="s">
+      <c r="A401" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B401" s="5">
@@ -10716,7 +10713,7 @@
       <c r="C401" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D401" s="17">
+      <c r="D401" s="3">
         <v>2</v>
       </c>
       <c r="E401" s="3" t="s">
@@ -10730,7 +10727,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A402" s="18" t="s">
+      <c r="A402" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B402" s="5">
@@ -10739,7 +10736,7 @@
       <c r="C402" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D402" s="17">
+      <c r="D402" s="3">
         <v>2</v>
       </c>
       <c r="E402" s="3" t="s">
@@ -10753,7 +10750,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A403" s="18" t="s">
+      <c r="A403" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B403" s="5">
@@ -10762,7 +10759,7 @@
       <c r="C403" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D403" s="17">
+      <c r="D403" s="3">
         <v>2</v>
       </c>
       <c r="E403" s="3" t="s">
@@ -10776,7 +10773,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A404" s="18" t="s">
+      <c r="A404" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B404" s="5">
@@ -10785,7 +10782,7 @@
       <c r="C404" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D404" s="17">
+      <c r="D404" s="3">
         <v>2</v>
       </c>
       <c r="E404" s="3" t="s">
@@ -10799,7 +10796,7 @@
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A405" s="18" t="s">
+      <c r="A405" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B405" s="5">
@@ -10808,7 +10805,7 @@
       <c r="C405" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D405" s="17">
+      <c r="D405" s="3">
         <v>2</v>
       </c>
       <c r="E405" s="3" t="s">
@@ -10822,7 +10819,7 @@
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A406" s="18" t="s">
+      <c r="A406" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B406" s="5">
@@ -10831,7 +10828,7 @@
       <c r="C406" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D406" s="17">
+      <c r="D406" s="3">
         <v>2</v>
       </c>
       <c r="E406" s="3" t="s">
@@ -10845,7 +10842,7 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A407" s="18" t="s">
+      <c r="A407" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B407" s="5">
@@ -10854,7 +10851,7 @@
       <c r="C407" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D407" s="17">
+      <c r="D407" s="3">
         <v>2</v>
       </c>
       <c r="E407" s="3" t="s">
@@ -10868,7 +10865,7 @@
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A408" s="18" t="s">
+      <c r="A408" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B408" s="5">
@@ -10877,7 +10874,7 @@
       <c r="C408" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D408" s="17">
+      <c r="D408" s="3">
         <v>2</v>
       </c>
       <c r="E408" s="3" t="s">
@@ -10891,7 +10888,7 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A409" s="18" t="s">
+      <c r="A409" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B409" s="5">
@@ -10900,7 +10897,7 @@
       <c r="C409" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D409" s="17">
+      <c r="D409" s="3">
         <v>2</v>
       </c>
       <c r="E409" s="3" t="s">
@@ -10914,7 +10911,7 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B410" s="5">
@@ -10923,7 +10920,7 @@
       <c r="C410" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D410" s="17">
+      <c r="D410" s="3">
         <v>2</v>
       </c>
       <c r="E410" s="3" t="s">
@@ -10937,7 +10934,7 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A411" s="18" t="s">
+      <c r="A411" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B411" s="5">
@@ -10946,7 +10943,7 @@
       <c r="C411" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D411" s="17">
+      <c r="D411" s="3">
         <v>2</v>
       </c>
       <c r="E411" s="3" t="s">
@@ -10960,7 +10957,7 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A412" s="18" t="s">
+      <c r="A412" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B412" s="5">
@@ -10969,7 +10966,7 @@
       <c r="C412" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D412" s="17">
+      <c r="D412" s="3">
         <v>2</v>
       </c>
       <c r="E412" s="3" t="s">
@@ -10983,7 +10980,7 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A413" s="18" t="s">
+      <c r="A413" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B413" s="5">
@@ -10992,7 +10989,7 @@
       <c r="C413" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D413" s="17">
+      <c r="D413" s="3">
         <v>2</v>
       </c>
       <c r="E413" s="3" t="s">
@@ -11006,7 +11003,7 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A414" s="18" t="s">
+      <c r="A414" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B414" s="5">
@@ -11015,7 +11012,7 @@
       <c r="C414" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D414" s="17">
+      <c r="D414" s="3">
         <v>2</v>
       </c>
       <c r="E414" s="3" t="s">
@@ -11029,7 +11026,7 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A415" s="18" t="s">
+      <c r="A415" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B415" s="5">
@@ -11038,7 +11035,7 @@
       <c r="C415" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D415" s="17">
+      <c r="D415" s="3">
         <v>2</v>
       </c>
       <c r="E415" s="3" t="s">
@@ -11052,7 +11049,7 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A416" s="18" t="s">
+      <c r="A416" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B416" s="5">
@@ -11061,7 +11058,7 @@
       <c r="C416" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D416" s="17">
+      <c r="D416" s="3">
         <v>2</v>
       </c>
       <c r="E416" s="3" t="s">
@@ -11075,7 +11072,7 @@
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A417" s="18" t="s">
+      <c r="A417" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B417" s="5">
@@ -11084,7 +11081,7 @@
       <c r="C417" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D417" s="17">
+      <c r="D417" s="3">
         <v>2</v>
       </c>
       <c r="E417" s="3" t="s">
@@ -11098,7 +11095,7 @@
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A418" s="18" t="s">
+      <c r="A418" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B418" s="5">
@@ -11107,7 +11104,7 @@
       <c r="C418" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D418" s="17">
+      <c r="D418" s="3">
         <v>2</v>
       </c>
       <c r="E418" s="3" t="s">
@@ -11121,7 +11118,7 @@
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A419" s="18" t="s">
+      <c r="A419" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B419" s="5">
@@ -11130,7 +11127,7 @@
       <c r="C419" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D419" s="17">
+      <c r="D419" s="3">
         <v>2</v>
       </c>
       <c r="E419" s="3" t="s">
@@ -11144,7 +11141,7 @@
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A420" s="18" t="s">
+      <c r="A420" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B420" s="5">
@@ -11153,7 +11150,7 @@
       <c r="C420" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D420" s="17">
+      <c r="D420" s="3">
         <v>2</v>
       </c>
       <c r="E420" s="3" t="s">
@@ -11167,7 +11164,7 @@
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A421" s="18" t="s">
+      <c r="A421" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B421" s="5">
@@ -11176,7 +11173,7 @@
       <c r="C421" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D421" s="17">
+      <c r="D421" s="3">
         <v>2</v>
       </c>
       <c r="E421" s="3" t="s">
@@ -11190,7 +11187,7 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A422" s="18" t="s">
+      <c r="A422" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B422" s="5">
@@ -11199,7 +11196,7 @@
       <c r="C422" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D422" s="17">
+      <c r="D422" s="3">
         <v>2</v>
       </c>
       <c r="E422" s="3" t="s">
@@ -11213,7 +11210,7 @@
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A423" s="18" t="s">
+      <c r="A423" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B423" s="5">
@@ -11222,7 +11219,7 @@
       <c r="C423" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D423" s="17">
+      <c r="D423" s="3">
         <v>2</v>
       </c>
       <c r="E423" s="3" t="s">
@@ -11236,7 +11233,7 @@
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A424" s="18" t="s">
+      <c r="A424" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B424" s="5">
@@ -11245,7 +11242,7 @@
       <c r="C424" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D424" s="17">
+      <c r="D424" s="3">
         <v>2</v>
       </c>
       <c r="E424" s="3" t="s">
@@ -11259,7 +11256,7 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A425" s="18" t="s">
+      <c r="A425" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B425" s="5">
@@ -11268,7 +11265,7 @@
       <c r="C425" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D425" s="17">
+      <c r="D425" s="3">
         <v>2</v>
       </c>
       <c r="E425" s="3" t="s">
@@ -11282,7 +11279,7 @@
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A426" s="18" t="s">
+      <c r="A426" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B426" s="5">
@@ -11291,7 +11288,7 @@
       <c r="C426" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D426" s="17">
+      <c r="D426" s="3">
         <v>2</v>
       </c>
       <c r="E426" s="3" t="s">
@@ -11305,7 +11302,7 @@
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A427" s="18" t="s">
+      <c r="A427" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B427" s="5">
@@ -11314,7 +11311,7 @@
       <c r="C427" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D427" s="17">
+      <c r="D427" s="3">
         <v>2</v>
       </c>
       <c r="E427" s="3" t="s">
@@ -11328,7 +11325,7 @@
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A428" s="18" t="s">
+      <c r="A428" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B428" s="5">
@@ -11337,7 +11334,7 @@
       <c r="C428" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D428" s="17">
+      <c r="D428" s="3">
         <v>2</v>
       </c>
       <c r="E428" s="3" t="s">
@@ -11351,7 +11348,7 @@
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A429" s="18" t="s">
+      <c r="A429" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B429" s="5">
@@ -11360,7 +11357,7 @@
       <c r="C429" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D429" s="17">
+      <c r="D429" s="3">
         <v>2</v>
       </c>
       <c r="E429" s="3" t="s">
@@ -11374,7 +11371,7 @@
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A430" s="18" t="s">
+      <c r="A430" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B430" s="5">
@@ -11383,7 +11380,7 @@
       <c r="C430" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D430" s="17">
+      <c r="D430" s="3">
         <v>2</v>
       </c>
       <c r="E430" s="3" t="s">
@@ -11397,7 +11394,7 @@
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A431" s="18" t="s">
+      <c r="A431" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B431" s="5">
@@ -11406,7 +11403,7 @@
       <c r="C431" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D431" s="17">
+      <c r="D431" s="3">
         <v>2</v>
       </c>
       <c r="E431" s="3" t="s">
@@ -11420,7 +11417,7 @@
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A432" s="18" t="s">
+      <c r="A432" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B432" s="5">
@@ -11429,7 +11426,7 @@
       <c r="C432" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="17">
+      <c r="D432" s="3">
         <v>2</v>
       </c>
       <c r="E432" s="3" t="s">
@@ -11443,7 +11440,7 @@
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A433" s="18" t="s">
+      <c r="A433" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B433" s="5">
@@ -11452,7 +11449,7 @@
       <c r="C433" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D433" s="17">
+      <c r="D433" s="3">
         <v>2</v>
       </c>
       <c r="E433" s="3" t="s">
@@ -11466,7 +11463,7 @@
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A434" s="18" t="s">
+      <c r="A434" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B434" s="5">
@@ -11475,7 +11472,7 @@
       <c r="C434" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D434" s="17">
+      <c r="D434" s="3">
         <v>2</v>
       </c>
       <c r="E434" s="3" t="s">
@@ -11489,7 +11486,7 @@
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A435" s="18" t="s">
+      <c r="A435" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B435" s="5">
@@ -11498,7 +11495,7 @@
       <c r="C435" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D435" s="17">
+      <c r="D435" s="3">
         <v>2</v>
       </c>
       <c r="E435" s="3" t="s">
@@ -11512,7 +11509,7 @@
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A436" s="18" t="s">
+      <c r="A436" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B436" s="5">
@@ -11521,7 +11518,7 @@
       <c r="C436" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D436" s="17">
+      <c r="D436" s="3">
         <v>2</v>
       </c>
       <c r="E436" s="3" t="s">
@@ -11535,7 +11532,7 @@
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A437" s="18" t="s">
+      <c r="A437" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B437" s="5">
@@ -11544,7 +11541,7 @@
       <c r="C437" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D437" s="17">
+      <c r="D437" s="3">
         <v>2</v>
       </c>
       <c r="E437" s="3" t="s">
@@ -11558,7 +11555,7 @@
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A438" s="18" t="s">
+      <c r="A438" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B438" s="5">
@@ -11567,7 +11564,7 @@
       <c r="C438" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D438" s="17">
+      <c r="D438" s="3">
         <v>2</v>
       </c>
       <c r="E438" s="3" t="s">
@@ -11581,7 +11578,7 @@
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A439" s="18" t="s">
+      <c r="A439" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B439" s="5">
@@ -11590,7 +11587,7 @@
       <c r="C439" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D439" s="17">
+      <c r="D439" s="3">
         <v>2</v>
       </c>
       <c r="E439" s="3" t="s">
@@ -11604,7 +11601,7 @@
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A440" s="18" t="s">
+      <c r="A440" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B440" s="5">
@@ -11613,7 +11610,7 @@
       <c r="C440" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D440" s="17">
+      <c r="D440" s="3">
         <v>2</v>
       </c>
       <c r="E440" s="3" t="s">
@@ -11627,7 +11624,7 @@
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A441" s="18" t="s">
+      <c r="A441" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B441" s="5">
@@ -11636,7 +11633,7 @@
       <c r="C441" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D441" s="17">
+      <c r="D441" s="3">
         <v>2</v>
       </c>
       <c r="E441" s="3" t="s">
@@ -11650,7 +11647,7 @@
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A442" s="18" t="s">
+      <c r="A442" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B442" s="5">
@@ -11659,7 +11656,7 @@
       <c r="C442" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D442" s="17">
+      <c r="D442" s="3">
         <v>2</v>
       </c>
       <c r="E442" s="3" t="s">
@@ -11673,7 +11670,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A443" s="18" t="s">
+      <c r="A443" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B443" s="5">
@@ -11682,7 +11679,7 @@
       <c r="C443" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D443" s="17">
+      <c r="D443" s="3">
         <v>2</v>
       </c>
       <c r="E443" s="3" t="s">
@@ -11696,7 +11693,7 @@
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A444" s="18" t="s">
+      <c r="A444" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B444" s="5">
@@ -11705,7 +11702,7 @@
       <c r="C444" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D444" s="17">
+      <c r="D444" s="3">
         <v>2</v>
       </c>
       <c r="E444" s="3" t="s">
@@ -11719,7 +11716,7 @@
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A445" s="18" t="s">
+      <c r="A445" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B445" s="5">
@@ -11728,7 +11725,7 @@
       <c r="C445" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D445" s="17">
+      <c r="D445" s="3">
         <v>2</v>
       </c>
       <c r="E445" s="3" t="s">
@@ -11742,7 +11739,7 @@
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A446" s="18" t="s">
+      <c r="A446" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B446" s="5">
@@ -11751,7 +11748,7 @@
       <c r="C446" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D446" s="17">
+      <c r="D446" s="3">
         <v>2</v>
       </c>
       <c r="E446" s="3" t="s">
@@ -11765,7 +11762,7 @@
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A447" s="18" t="s">
+      <c r="A447" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B447" s="5">
@@ -11774,7 +11771,7 @@
       <c r="C447" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D447" s="17">
+      <c r="D447" s="3">
         <v>2</v>
       </c>
       <c r="E447" s="3" t="s">
@@ -11788,7 +11785,7 @@
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A448" s="18" t="s">
+      <c r="A448" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B448" s="5">
@@ -11797,7 +11794,7 @@
       <c r="C448" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D448" s="17">
+      <c r="D448" s="3">
         <v>2</v>
       </c>
       <c r="E448" s="3" t="s">
@@ -11811,7 +11808,7 @@
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A449" s="18" t="s">
+      <c r="A449" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B449" s="5">
@@ -11820,7 +11817,7 @@
       <c r="C449" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D449" s="17">
+      <c r="D449" s="3">
         <v>2</v>
       </c>
       <c r="E449" s="3" t="s">
@@ -11834,7 +11831,7 @@
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A450" s="18" t="s">
+      <c r="A450" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B450" s="5">
@@ -11843,7 +11840,7 @@
       <c r="C450" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D450" s="17">
+      <c r="D450" s="3">
         <v>2</v>
       </c>
       <c r="E450" s="3" t="s">
@@ -11857,7 +11854,7 @@
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A451" s="18" t="s">
+      <c r="A451" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B451" s="5">
@@ -11866,7 +11863,7 @@
       <c r="C451" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D451" s="17">
+      <c r="D451" s="3">
         <v>2</v>
       </c>
       <c r="E451" s="3" t="s">
@@ -11880,7 +11877,7 @@
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A452" s="18" t="s">
+      <c r="A452" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B452" s="5">
@@ -11889,7 +11886,7 @@
       <c r="C452" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D452" s="17">
+      <c r="D452" s="3">
         <v>2</v>
       </c>
       <c r="E452" s="3" t="s">
@@ -11903,7 +11900,7 @@
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A453" s="18" t="s">
+      <c r="A453" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B453" s="5">
@@ -11912,7 +11909,7 @@
       <c r="C453" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D453" s="17">
+      <c r="D453" s="3">
         <v>2</v>
       </c>
       <c r="E453" s="3" t="s">
@@ -11926,7 +11923,7 @@
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A454" s="18" t="s">
+      <c r="A454" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B454" s="5">
@@ -11935,7 +11932,7 @@
       <c r="C454" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D454" s="17">
+      <c r="D454" s="3">
         <v>2</v>
       </c>
       <c r="E454" s="3" t="s">
@@ -11949,7 +11946,7 @@
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A455" s="18" t="s">
+      <c r="A455" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B455" s="5">
@@ -11958,7 +11955,7 @@
       <c r="C455" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D455" s="17">
+      <c r="D455" s="3">
         <v>2</v>
       </c>
       <c r="E455" s="3" t="s">
@@ -11972,7 +11969,7 @@
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A456" s="18" t="s">
+      <c r="A456" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B456" s="5">
@@ -11981,7 +11978,7 @@
       <c r="C456" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D456" s="17">
+      <c r="D456" s="3">
         <v>2</v>
       </c>
       <c r="E456" s="3" t="s">
@@ -11995,7 +11992,7 @@
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A457" s="18" t="s">
+      <c r="A457" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B457" s="5">
@@ -12004,7 +12001,7 @@
       <c r="C457" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D457" s="17">
+      <c r="D457" s="3">
         <v>2</v>
       </c>
       <c r="E457" s="3" t="s">
@@ -12018,7 +12015,7 @@
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A458" s="18" t="s">
+      <c r="A458" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B458" s="5">
@@ -12027,7 +12024,7 @@
       <c r="C458" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D458" s="17">
+      <c r="D458" s="3">
         <v>2</v>
       </c>
       <c r="E458" s="3" t="s">
@@ -12041,7 +12038,7 @@
       </c>
     </row>
     <row r="459" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="19" t="s">
+      <c r="A459" s="17" t="s">
         <v>272</v>
       </c>
       <c r="B459" s="9">
@@ -12050,7 +12047,7 @@
       <c r="C459" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D459" s="20">
+      <c r="D459" s="10">
         <v>2</v>
       </c>
       <c r="E459" s="10" t="s">
